--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Leap2-Ghsr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Leap2-Ghsr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.619940333333333</v>
+        <v>1.324568</v>
       </c>
       <c r="H2">
-        <v>4.859821</v>
+        <v>3.973704</v>
       </c>
       <c r="I2">
-        <v>0.1965142347457889</v>
+        <v>0.1811519799166174</v>
       </c>
       <c r="J2">
-        <v>0.196514234745789</v>
+        <v>0.1811519799166174</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2864683333333333</v>
+        <v>0.05058633333333334</v>
       </c>
       <c r="N2">
-        <v>0.859405</v>
+        <v>0.151759</v>
       </c>
       <c r="O2">
-        <v>0.07653612378937995</v>
+        <v>0.0134081080006538</v>
       </c>
       <c r="P2">
-        <v>0.07653612378937995</v>
+        <v>0.0134081080006538</v>
       </c>
       <c r="Q2">
-        <v>0.4640616073894444</v>
+        <v>0.06700503837066667</v>
       </c>
       <c r="R2">
-        <v>4.176554466505</v>
+        <v>0.6030453453360001</v>
       </c>
       <c r="S2">
-        <v>0.01504043779687897</v>
+        <v>0.002428905311254274</v>
       </c>
       <c r="T2">
-        <v>0.01504043779687897</v>
+        <v>0.002428905311254274</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.619940333333333</v>
+        <v>1.324568</v>
       </c>
       <c r="H3">
-        <v>4.859821</v>
+        <v>3.973704</v>
       </c>
       <c r="I3">
-        <v>0.1965142347457889</v>
+        <v>0.1811519799166174</v>
       </c>
       <c r="J3">
-        <v>0.196514234745789</v>
+        <v>0.1811519799166174</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.423945999999999</v>
+        <v>2.423946</v>
       </c>
       <c r="N3">
-        <v>7.271837999999999</v>
+        <v>7.271838</v>
       </c>
       <c r="O3">
-        <v>0.647608861182233</v>
+        <v>0.6424764875049145</v>
       </c>
       <c r="P3">
-        <v>0.6476088611822332</v>
+        <v>0.6424764875049145</v>
       </c>
       <c r="Q3">
-        <v>3.926647891221999</v>
+        <v>3.210681305328</v>
       </c>
       <c r="R3">
-        <v>35.339831020998</v>
+        <v>28.896131747952</v>
       </c>
       <c r="S3">
-        <v>0.1272643597698184</v>
+        <v>0.1163858877613891</v>
       </c>
       <c r="T3">
-        <v>0.1272643597698184</v>
+        <v>0.1163858877613892</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.619940333333333</v>
+        <v>1.324568</v>
       </c>
       <c r="H4">
-        <v>4.859821</v>
+        <v>3.973704</v>
       </c>
       <c r="I4">
-        <v>0.1965142347457889</v>
+        <v>0.1811519799166174</v>
       </c>
       <c r="J4">
-        <v>0.196514234745789</v>
+        <v>0.1811519799166174</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2710936666666667</v>
+        <v>0.522662</v>
       </c>
       <c r="N4">
-        <v>0.813281</v>
+        <v>1.567986</v>
       </c>
       <c r="O4">
-        <v>0.07242845374596461</v>
+        <v>0.1385336331388131</v>
       </c>
       <c r="P4">
-        <v>0.07242845374596461</v>
+        <v>0.1385336331388132</v>
       </c>
       <c r="Q4">
-        <v>0.4391555647445556</v>
+        <v>0.692301360016</v>
       </c>
       <c r="R4">
-        <v>3.952400082701</v>
+        <v>6.230712240143999</v>
       </c>
       <c r="S4">
-        <v>0.01423322216170901</v>
+        <v>0.02509564192813831</v>
       </c>
       <c r="T4">
-        <v>0.01423322216170901</v>
+        <v>0.02509564192813833</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.619940333333333</v>
+        <v>1.324568</v>
       </c>
       <c r="H5">
-        <v>4.859821</v>
+        <v>3.973704</v>
       </c>
       <c r="I5">
-        <v>0.1965142347457889</v>
+        <v>0.1811519799166174</v>
       </c>
       <c r="J5">
-        <v>0.196514234745789</v>
+        <v>0.1811519799166174</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.4501426666666666</v>
+        <v>0.09855700000000001</v>
       </c>
       <c r="N5">
-        <v>1.350428</v>
+        <v>0.295671</v>
       </c>
       <c r="O5">
-        <v>0.1202652120672381</v>
+        <v>0.02612292319177979</v>
       </c>
       <c r="P5">
-        <v>0.1202652120672381</v>
+        <v>0.02612292319177979</v>
       </c>
       <c r="Q5">
-        <v>0.7292042614875555</v>
+        <v>0.130545448376</v>
       </c>
       <c r="R5">
-        <v>6.562838353388</v>
+        <v>1.174909035384</v>
       </c>
       <c r="S5">
-        <v>0.02363382611593332</v>
+        <v>0.004732219257400631</v>
       </c>
       <c r="T5">
-        <v>0.02363382611593333</v>
+        <v>0.004732219257400631</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.619940333333333</v>
+        <v>1.324568</v>
       </c>
       <c r="H6">
-        <v>4.859821</v>
+        <v>3.973704</v>
       </c>
       <c r="I6">
-        <v>0.1965142347457889</v>
+        <v>0.1811519799166174</v>
       </c>
       <c r="J6">
-        <v>0.196514234745789</v>
+        <v>0.1811519799166174</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.311266</v>
+        <v>0.6060016666666667</v>
       </c>
       <c r="N6">
-        <v>0.9337979999999999</v>
+        <v>1.818005</v>
       </c>
       <c r="O6">
-        <v>0.08316134921518425</v>
+        <v>0.1606231418612973</v>
       </c>
       <c r="P6">
-        <v>0.08316134921518424</v>
+        <v>0.1606231418612973</v>
       </c>
       <c r="Q6">
-        <v>0.5042323477953333</v>
+        <v>0.8026904156133333</v>
       </c>
       <c r="R6">
-        <v>4.538091130158</v>
+        <v>7.22421374052</v>
       </c>
       <c r="S6">
-        <v>0.01634238890144925</v>
+        <v>0.0290972001686017</v>
       </c>
       <c r="T6">
-        <v>0.01634238890144925</v>
+        <v>0.02909720016860171</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,25 +844,25 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4610223333333334</v>
+        <v>1.324568</v>
       </c>
       <c r="H7">
-        <v>1.383067</v>
+        <v>3.973704</v>
       </c>
       <c r="I7">
-        <v>0.05592641233229662</v>
+        <v>0.1811519799166174</v>
       </c>
       <c r="J7">
-        <v>0.05592641233229662</v>
+        <v>0.1811519799166174</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2864683333333333</v>
+        <v>0.07106366666666666</v>
       </c>
       <c r="N7">
-        <v>0.859405</v>
+        <v>0.213191</v>
       </c>
       <c r="O7">
-        <v>0.07653612378937995</v>
+        <v>0.01883570630254142</v>
       </c>
       <c r="P7">
-        <v>0.07653612378937995</v>
+        <v>0.01883570630254142</v>
       </c>
       <c r="Q7">
-        <v>0.1320682994594445</v>
+        <v>0.09412865882933333</v>
       </c>
       <c r="R7">
-        <v>1.188614695135</v>
+        <v>0.847157929464</v>
       </c>
       <c r="S7">
-        <v>0.004280390817360559</v>
+        <v>0.003412125489833287</v>
       </c>
       <c r="T7">
-        <v>0.00428039081736056</v>
+        <v>0.003412125489833287</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -921,40 +921,40 @@
         <v>1.383067</v>
       </c>
       <c r="I8">
-        <v>0.05592641233229662</v>
+        <v>0.06305082749176492</v>
       </c>
       <c r="J8">
-        <v>0.05592641233229662</v>
+        <v>0.06305082749176492</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.423945999999999</v>
+        <v>0.05058633333333334</v>
       </c>
       <c r="N8">
-        <v>7.271837999999999</v>
+        <v>0.151759</v>
       </c>
       <c r="O8">
-        <v>0.647608861182233</v>
+        <v>0.0134081080006538</v>
       </c>
       <c r="P8">
-        <v>0.6476088611822332</v>
+        <v>0.0134081080006538</v>
       </c>
       <c r="Q8">
-        <v>1.117493240794</v>
+        <v>0.02332142942811111</v>
       </c>
       <c r="R8">
-        <v>10.057439167146</v>
+        <v>0.209892864853</v>
       </c>
       <c r="S8">
-        <v>0.03621844020052661</v>
+        <v>0.0008453923045401759</v>
       </c>
       <c r="T8">
-        <v>0.03621844020052661</v>
+        <v>0.0008453923045401759</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -983,40 +983,40 @@
         <v>1.383067</v>
       </c>
       <c r="I9">
-        <v>0.05592641233229662</v>
+        <v>0.06305082749176492</v>
       </c>
       <c r="J9">
-        <v>0.05592641233229662</v>
+        <v>0.06305082749176492</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2710936666666667</v>
+        <v>2.423946</v>
       </c>
       <c r="N9">
-        <v>0.813281</v>
+        <v>7.271838</v>
       </c>
       <c r="O9">
-        <v>0.07242845374596461</v>
+        <v>0.6424764875049145</v>
       </c>
       <c r="P9">
-        <v>0.07242845374596461</v>
+        <v>0.6424764875049145</v>
       </c>
       <c r="Q9">
-        <v>0.1249802347585556</v>
+        <v>1.117493240794</v>
       </c>
       <c r="R9">
-        <v>1.124822112827</v>
+        <v>10.057439167146</v>
       </c>
       <c r="S9">
-        <v>0.004050663568787491</v>
+        <v>0.04050867418118743</v>
       </c>
       <c r="T9">
-        <v>0.004050663568787491</v>
+        <v>0.04050867418118743</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1045,40 +1045,40 @@
         <v>1.383067</v>
       </c>
       <c r="I10">
-        <v>0.05592641233229662</v>
+        <v>0.06305082749176492</v>
       </c>
       <c r="J10">
-        <v>0.05592641233229662</v>
+        <v>0.06305082749176492</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.4501426666666666</v>
+        <v>0.522662</v>
       </c>
       <c r="N10">
-        <v>1.350428</v>
+        <v>1.567986</v>
       </c>
       <c r="O10">
-        <v>0.1202652120672381</v>
+        <v>0.1385336331388131</v>
       </c>
       <c r="P10">
-        <v>0.1202652120672381</v>
+        <v>0.1385336331388132</v>
       </c>
       <c r="Q10">
-        <v>0.2075258225195556</v>
+        <v>0.2409588547846667</v>
       </c>
       <c r="R10">
-        <v>1.867732402676</v>
+        <v>2.168629693062</v>
       </c>
       <c r="S10">
-        <v>0.006726001839303455</v>
+        <v>0.008734660204842756</v>
       </c>
       <c r="T10">
-        <v>0.006726001839303455</v>
+        <v>0.008734660204842757</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1107,10 +1107,10 @@
         <v>1.383067</v>
       </c>
       <c r="I11">
-        <v>0.05592641233229662</v>
+        <v>0.06305082749176492</v>
       </c>
       <c r="J11">
-        <v>0.05592641233229662</v>
+        <v>0.06305082749176492</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,33 +1119,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.311266</v>
+        <v>0.09855700000000001</v>
       </c>
       <c r="N11">
-        <v>0.9337979999999999</v>
+        <v>0.295671</v>
       </c>
       <c r="O11">
-        <v>0.08316134921518425</v>
+        <v>0.02612292319177979</v>
       </c>
       <c r="P11">
-        <v>0.08316134921518424</v>
+        <v>0.02612292319177979</v>
       </c>
       <c r="Q11">
-        <v>0.1435005776073333</v>
+        <v>0.04543697810633334</v>
       </c>
       <c r="R11">
-        <v>1.291505198466</v>
+        <v>0.408932802957</v>
       </c>
       <c r="S11">
-        <v>0.004650915906318507</v>
+        <v>0.001647071923745533</v>
       </c>
       <c r="T11">
-        <v>0.004650915906318506</v>
+        <v>0.001647071923745533</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2709113333333333</v>
+        <v>0.4610223333333334</v>
       </c>
       <c r="H12">
-        <v>0.8127340000000001</v>
+        <v>1.383067</v>
       </c>
       <c r="I12">
-        <v>0.03286413225134918</v>
+        <v>0.06305082749176492</v>
       </c>
       <c r="J12">
-        <v>0.03286413225134919</v>
+        <v>0.06305082749176492</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.2864683333333333</v>
+        <v>0.6060016666666667</v>
       </c>
       <c r="N12">
-        <v>0.859405</v>
+        <v>1.818005</v>
       </c>
       <c r="O12">
-        <v>0.07653612378937995</v>
+        <v>0.1606231418612973</v>
       </c>
       <c r="P12">
-        <v>0.07653612378937995</v>
+        <v>0.1606231418612973</v>
       </c>
       <c r="Q12">
-        <v>0.07760751814111111</v>
+        <v>0.2793803023705556</v>
       </c>
       <c r="R12">
-        <v>0.69846766327</v>
+        <v>2.514422721335</v>
       </c>
       <c r="S12">
-        <v>0.002515293294219815</v>
+        <v>0.01012742200868194</v>
       </c>
       <c r="T12">
-        <v>0.002515293294219815</v>
+        <v>0.01012742200868194</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4610223333333334</v>
+      </c>
+      <c r="H13">
+        <v>1.383067</v>
+      </c>
+      <c r="I13">
+        <v>0.06305082749176492</v>
+      </c>
+      <c r="J13">
+        <v>0.06305082749176492</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G13">
-        <v>0.2709113333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.8127340000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.03286413225134918</v>
-      </c>
-      <c r="J13">
-        <v>0.03286413225134919</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
       <c r="M13">
-        <v>2.423945999999999</v>
+        <v>0.07106366666666666</v>
       </c>
       <c r="N13">
-        <v>7.271837999999999</v>
+        <v>0.213191</v>
       </c>
       <c r="O13">
-        <v>0.647608861182233</v>
+        <v>0.01883570630254142</v>
       </c>
       <c r="P13">
-        <v>0.6476088611822332</v>
+        <v>0.01883570630254142</v>
       </c>
       <c r="Q13">
-        <v>0.6566744427879999</v>
+        <v>0.03276193742188889</v>
       </c>
       <c r="R13">
-        <v>5.910069985092</v>
+        <v>0.294857436797</v>
       </c>
       <c r="S13">
-        <v>0.02128310326103854</v>
+        <v>0.001187606868767089</v>
       </c>
       <c r="T13">
-        <v>0.02128310326103855</v>
+        <v>0.001187606868767089</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,25 +1278,25 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2709113333333333</v>
+        <v>1.472837333333333</v>
       </c>
       <c r="H14">
-        <v>0.8127340000000001</v>
+        <v>4.418512</v>
       </c>
       <c r="I14">
-        <v>0.03286413225134918</v>
+        <v>0.2014297484375617</v>
       </c>
       <c r="J14">
-        <v>0.03286413225134919</v>
+        <v>0.2014297484375618</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.2710936666666667</v>
+        <v>0.05058633333333334</v>
       </c>
       <c r="N14">
-        <v>0.813281</v>
+        <v>0.151759</v>
       </c>
       <c r="O14">
-        <v>0.07242845374596461</v>
+        <v>0.0134081080006538</v>
       </c>
       <c r="P14">
-        <v>0.07242845374596461</v>
+        <v>0.0134081080006538</v>
       </c>
       <c r="Q14">
-        <v>0.07344234669488889</v>
+        <v>0.07450544028977778</v>
       </c>
       <c r="R14">
-        <v>0.6609811202540001</v>
+        <v>0.670548962608</v>
       </c>
       <c r="S14">
-        <v>0.002380298282668108</v>
+        <v>0.002700791821595354</v>
       </c>
       <c r="T14">
-        <v>0.002380298282668108</v>
+        <v>0.002700791821595354</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,25 +1340,25 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2709113333333333</v>
+        <v>1.472837333333333</v>
       </c>
       <c r="H15">
-        <v>0.8127340000000001</v>
+        <v>4.418512</v>
       </c>
       <c r="I15">
-        <v>0.03286413225134918</v>
+        <v>0.2014297484375617</v>
       </c>
       <c r="J15">
-        <v>0.03286413225134919</v>
+        <v>0.2014297484375618</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4501426666666666</v>
+        <v>2.423946</v>
       </c>
       <c r="N15">
-        <v>1.350428</v>
+        <v>7.271838</v>
       </c>
       <c r="O15">
-        <v>0.1202652120672381</v>
+        <v>0.6424764875049145</v>
       </c>
       <c r="P15">
-        <v>0.1202652120672381</v>
+        <v>0.6424764875049145</v>
       </c>
       <c r="Q15">
-        <v>0.1219487500168889</v>
+        <v>3.570078162784</v>
       </c>
       <c r="R15">
-        <v>1.097538750152</v>
+        <v>32.13070346505599</v>
       </c>
       <c r="S15">
-        <v>0.003952411834614269</v>
+        <v>0.1294138772551632</v>
       </c>
       <c r="T15">
-        <v>0.00395241183461427</v>
+        <v>0.1294138772551632</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,87 +1402,87 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2709113333333333</v>
+        <v>1.472837333333333</v>
       </c>
       <c r="H16">
-        <v>0.8127340000000001</v>
+        <v>4.418512</v>
       </c>
       <c r="I16">
-        <v>0.03286413225134918</v>
+        <v>0.2014297484375617</v>
       </c>
       <c r="J16">
-        <v>0.03286413225134919</v>
+        <v>0.2014297484375618</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.311266</v>
+        <v>0.522662</v>
       </c>
       <c r="N16">
-        <v>0.9337979999999999</v>
+        <v>1.567986</v>
       </c>
       <c r="O16">
-        <v>0.08316134921518425</v>
+        <v>0.1385336331388131</v>
       </c>
       <c r="P16">
-        <v>0.08316134921518424</v>
+        <v>0.1385336331388132</v>
       </c>
       <c r="Q16">
-        <v>0.08432548708133333</v>
+        <v>0.7697961063146667</v>
       </c>
       <c r="R16">
-        <v>0.758929383732</v>
+        <v>6.928164956831999</v>
       </c>
       <c r="S16">
-        <v>0.002733025578808449</v>
+        <v>0.0279047948732926</v>
       </c>
       <c r="T16">
-        <v>0.002733025578808449</v>
+        <v>0.02790479487329261</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>2.095956333333334</v>
+        <v>1.472837333333333</v>
       </c>
       <c r="H17">
-        <v>6.287869000000001</v>
+        <v>4.418512</v>
       </c>
       <c r="I17">
-        <v>0.2542595220516906</v>
+        <v>0.2014297484375617</v>
       </c>
       <c r="J17">
-        <v>0.2542595220516907</v>
+        <v>0.2014297484375618</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,33 +1491,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.2864683333333333</v>
+        <v>0.09855700000000001</v>
       </c>
       <c r="N17">
-        <v>0.859405</v>
+        <v>0.295671</v>
       </c>
       <c r="O17">
-        <v>0.07653612378937995</v>
+        <v>0.02612292319177979</v>
       </c>
       <c r="P17">
-        <v>0.07653612378937995</v>
+        <v>0.02612292319177979</v>
       </c>
       <c r="Q17">
-        <v>0.6004251175494445</v>
+        <v>0.1451584290613333</v>
       </c>
       <c r="R17">
-        <v>5.403826057945</v>
+        <v>1.306425861552</v>
       </c>
       <c r="S17">
-        <v>0.01946003825437677</v>
+        <v>0.005261933846973951</v>
       </c>
       <c r="T17">
-        <v>0.01946003825437678</v>
+        <v>0.005261933846973952</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>2.095956333333334</v>
+        <v>1.472837333333333</v>
       </c>
       <c r="H18">
-        <v>6.287869000000001</v>
+        <v>4.418512</v>
       </c>
       <c r="I18">
-        <v>0.2542595220516906</v>
+        <v>0.2014297484375617</v>
       </c>
       <c r="J18">
-        <v>0.2542595220516907</v>
+        <v>0.2014297484375618</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>2.423945999999999</v>
+        <v>0.6060016666666667</v>
       </c>
       <c r="N18">
-        <v>7.271837999999999</v>
+        <v>1.818005</v>
       </c>
       <c r="O18">
-        <v>0.647608861182233</v>
+        <v>0.1606231418612973</v>
       </c>
       <c r="P18">
-        <v>0.6476088611822332</v>
+        <v>0.1606231418612973</v>
       </c>
       <c r="Q18">
-        <v>5.080484970358</v>
+        <v>0.8925418787288889</v>
       </c>
       <c r="R18">
-        <v>45.724364733222</v>
+        <v>8.032876908559999</v>
       </c>
       <c r="S18">
-        <v>0.1646607195206342</v>
+        <v>0.0323542790583719</v>
       </c>
       <c r="T18">
-        <v>0.1646607195206343</v>
+        <v>0.0323542790583719</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,25 +1588,25 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>2.095956333333334</v>
+        <v>1.472837333333333</v>
       </c>
       <c r="H19">
-        <v>6.287869000000001</v>
+        <v>4.418512</v>
       </c>
       <c r="I19">
-        <v>0.2542595220516906</v>
+        <v>0.2014297484375617</v>
       </c>
       <c r="J19">
-        <v>0.2542595220516907</v>
+        <v>0.2014297484375618</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.2710936666666667</v>
+        <v>0.07106366666666666</v>
       </c>
       <c r="N19">
-        <v>0.813281</v>
+        <v>0.213191</v>
       </c>
       <c r="O19">
-        <v>0.07242845374596461</v>
+        <v>0.01883570630254142</v>
       </c>
       <c r="P19">
-        <v>0.07242845374596461</v>
+        <v>0.01883570630254142</v>
       </c>
       <c r="Q19">
-        <v>0.5682004875765556</v>
+        <v>0.1046652213102222</v>
       </c>
       <c r="R19">
-        <v>5.113804388189001</v>
+        <v>0.941986991792</v>
       </c>
       <c r="S19">
-        <v>0.01841562403239194</v>
+        <v>0.003794071582164715</v>
       </c>
       <c r="T19">
-        <v>0.01841562403239195</v>
+        <v>0.003794071582164715</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.095956333333334</v>
+        <v>0.9967913333333334</v>
       </c>
       <c r="H20">
-        <v>6.287869000000001</v>
+        <v>2.990374</v>
       </c>
       <c r="I20">
-        <v>0.2542595220516906</v>
+        <v>0.1363242382399833</v>
       </c>
       <c r="J20">
-        <v>0.2542595220516907</v>
+        <v>0.1363242382399834</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.4501426666666666</v>
+        <v>0.05058633333333334</v>
       </c>
       <c r="N20">
-        <v>1.350428</v>
+        <v>0.151759</v>
       </c>
       <c r="O20">
-        <v>0.1202652120672381</v>
+        <v>0.0134081080006538</v>
       </c>
       <c r="P20">
-        <v>0.1202652120672381</v>
+        <v>0.0134081080006538</v>
       </c>
       <c r="Q20">
-        <v>0.9434793731035556</v>
+        <v>0.05042401865177779</v>
       </c>
       <c r="R20">
-        <v>8.491314357932001</v>
+        <v>0.453816167866</v>
       </c>
       <c r="S20">
-        <v>0.03057857533966118</v>
+        <v>0.001827850109428555</v>
       </c>
       <c r="T20">
-        <v>0.03057857533966119</v>
+        <v>0.001827850109428555</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.095956333333334</v>
+        <v>0.9967913333333334</v>
       </c>
       <c r="H21">
-        <v>6.287869000000001</v>
+        <v>2.990374</v>
       </c>
       <c r="I21">
-        <v>0.2542595220516906</v>
+        <v>0.1363242382399833</v>
       </c>
       <c r="J21">
-        <v>0.2542595220516907</v>
+        <v>0.1363242382399834</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.311266</v>
+        <v>2.423946</v>
       </c>
       <c r="N21">
-        <v>0.9337979999999999</v>
+        <v>7.271838</v>
       </c>
       <c r="O21">
-        <v>0.08316134921518425</v>
+        <v>0.6424764875049145</v>
       </c>
       <c r="P21">
-        <v>0.08316134921518424</v>
+        <v>0.6424764875049145</v>
       </c>
       <c r="Q21">
-        <v>0.6523999440513334</v>
+        <v>2.416168365268</v>
       </c>
       <c r="R21">
-        <v>5.871599496462</v>
+        <v>21.745515287412</v>
       </c>
       <c r="S21">
-        <v>0.02114456490462649</v>
+        <v>0.08758511774620763</v>
       </c>
       <c r="T21">
-        <v>0.02114456490462649</v>
+        <v>0.08758511774620766</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.111756</v>
+        <v>0.9967913333333334</v>
       </c>
       <c r="H22">
-        <v>6.335268</v>
+        <v>2.990374</v>
       </c>
       <c r="I22">
-        <v>0.2561761725235322</v>
+        <v>0.1363242382399833</v>
       </c>
       <c r="J22">
-        <v>0.2561761725235322</v>
+        <v>0.1363242382399834</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.2864683333333333</v>
+        <v>0.522662</v>
       </c>
       <c r="N22">
-        <v>0.859405</v>
+        <v>1.567986</v>
       </c>
       <c r="O22">
-        <v>0.07653612378937995</v>
+        <v>0.1385336331388131</v>
       </c>
       <c r="P22">
-        <v>0.07653612378937995</v>
+        <v>0.1385336331388132</v>
       </c>
       <c r="Q22">
-        <v>0.6049512217266667</v>
+        <v>0.5209849518626667</v>
       </c>
       <c r="R22">
-        <v>5.44456099554</v>
+        <v>4.688864566764</v>
       </c>
       <c r="S22">
-        <v>0.01960673125215062</v>
+        <v>0.01888549200826601</v>
       </c>
       <c r="T22">
-        <v>0.01960673125215062</v>
+        <v>0.01888549200826602</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,60 +1845,60 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.111756</v>
+        <v>0.9967913333333334</v>
       </c>
       <c r="H23">
-        <v>6.335268</v>
+        <v>2.990374</v>
       </c>
       <c r="I23">
-        <v>0.2561761725235322</v>
+        <v>0.1363242382399833</v>
       </c>
       <c r="J23">
-        <v>0.2561761725235322</v>
+        <v>0.1363242382399834</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>2.423945999999999</v>
+        <v>0.09855700000000001</v>
       </c>
       <c r="N23">
-        <v>7.271837999999999</v>
+        <v>0.295671</v>
       </c>
       <c r="O23">
-        <v>0.647608861182233</v>
+        <v>0.02612292319177979</v>
       </c>
       <c r="P23">
-        <v>0.6476088611822332</v>
+        <v>0.02612292319177979</v>
       </c>
       <c r="Q23">
-        <v>5.118782509176</v>
+        <v>0.09824076343933334</v>
       </c>
       <c r="R23">
-        <v>46.069042582584</v>
+        <v>0.884166870954</v>
       </c>
       <c r="S23">
-        <v>0.1659019593499879</v>
+        <v>0.003561187604720974</v>
       </c>
       <c r="T23">
-        <v>0.165901959349988</v>
+        <v>0.003561187604720975</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.111756</v>
+        <v>0.9967913333333334</v>
       </c>
       <c r="H24">
-        <v>6.335268</v>
+        <v>2.990374</v>
       </c>
       <c r="I24">
-        <v>0.2561761725235322</v>
+        <v>0.1363242382399833</v>
       </c>
       <c r="J24">
-        <v>0.2561761725235322</v>
+        <v>0.1363242382399834</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.2710936666666667</v>
+        <v>0.6060016666666667</v>
       </c>
       <c r="N24">
-        <v>0.813281</v>
+        <v>1.818005</v>
       </c>
       <c r="O24">
-        <v>0.07242845374596461</v>
+        <v>0.1606231418612973</v>
       </c>
       <c r="P24">
-        <v>0.07242845374596461</v>
+        <v>0.1606231418612973</v>
       </c>
       <c r="Q24">
-        <v>0.5724836771453334</v>
+        <v>0.604057209318889</v>
       </c>
       <c r="R24">
-        <v>5.152353094308</v>
+        <v>5.43651488387</v>
       </c>
       <c r="S24">
-        <v>0.0185544440624389</v>
+        <v>0.02189682745795413</v>
       </c>
       <c r="T24">
-        <v>0.0185544440624389</v>
+        <v>0.02189682745795413</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.111756</v>
+        <v>0.9967913333333334</v>
       </c>
       <c r="H25">
-        <v>6.335268</v>
+        <v>2.990374</v>
       </c>
       <c r="I25">
-        <v>0.2561761725235322</v>
+        <v>0.1363242382399833</v>
       </c>
       <c r="J25">
-        <v>0.2561761725235322</v>
+        <v>0.1363242382399834</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.4501426666666666</v>
+        <v>0.07106366666666666</v>
       </c>
       <c r="N25">
-        <v>1.350428</v>
+        <v>0.213191</v>
       </c>
       <c r="O25">
-        <v>0.1202652120672381</v>
+        <v>0.01883570630254142</v>
       </c>
       <c r="P25">
-        <v>0.1202652120672381</v>
+        <v>0.01883570630254142</v>
       </c>
       <c r="Q25">
-        <v>0.9505914771893333</v>
+        <v>0.07083564704822222</v>
       </c>
       <c r="R25">
-        <v>8.555323294703999</v>
+        <v>0.637520823434</v>
       </c>
       <c r="S25">
-        <v>0.03080908171511598</v>
+        <v>0.002567763313406012</v>
       </c>
       <c r="T25">
-        <v>0.03080908171511598</v>
+        <v>0.002567763313406013</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.111756</v>
+        <v>2.319357666666666</v>
       </c>
       <c r="H26">
-        <v>6.335268</v>
+        <v>6.958072999999999</v>
       </c>
       <c r="I26">
-        <v>0.2561761725235322</v>
+        <v>0.3172024640875006</v>
       </c>
       <c r="J26">
-        <v>0.2561761725235322</v>
+        <v>0.3172024640875006</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2049,33 +2049,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.311266</v>
+        <v>0.05058633333333334</v>
       </c>
       <c r="N26">
-        <v>0.9337979999999999</v>
+        <v>0.151759</v>
       </c>
       <c r="O26">
-        <v>0.08316134921518425</v>
+        <v>0.0134081080006538</v>
       </c>
       <c r="P26">
-        <v>0.08316134921518424</v>
+        <v>0.0134081080006538</v>
       </c>
       <c r="Q26">
-        <v>0.6573178430960001</v>
+        <v>0.1173278000452222</v>
       </c>
       <c r="R26">
-        <v>5.915860587864</v>
+        <v>1.055950200407</v>
       </c>
       <c r="S26">
-        <v>0.02130395614383875</v>
+        <v>0.004253084896558716</v>
       </c>
       <c r="T26">
-        <v>0.02130395614383875</v>
+        <v>0.004253084896558716</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.683787666666667</v>
+        <v>2.319357666666666</v>
       </c>
       <c r="H27">
-        <v>5.051363</v>
+        <v>6.958072999999999</v>
       </c>
       <c r="I27">
-        <v>0.2042595260953423</v>
+        <v>0.3172024640875006</v>
       </c>
       <c r="J27">
-        <v>0.2042595260953423</v>
+        <v>0.3172024640875006</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>0.2864683333333333</v>
+        <v>2.423946</v>
       </c>
       <c r="N27">
-        <v>0.859405</v>
+        <v>7.271838</v>
       </c>
       <c r="O27">
-        <v>0.07653612378937995</v>
+        <v>0.6424764875049145</v>
       </c>
       <c r="P27">
-        <v>0.07653612378937995</v>
+        <v>0.6424764875049145</v>
       </c>
       <c r="Q27">
-        <v>0.4823518465572222</v>
+        <v>5.621997738685999</v>
       </c>
       <c r="R27">
-        <v>4.341166619015</v>
+        <v>50.59797964817399</v>
       </c>
       <c r="S27">
-        <v>0.0156332323743932</v>
+        <v>0.2037951249548411</v>
       </c>
       <c r="T27">
-        <v>0.0156332323743932</v>
+        <v>0.2037951249548411</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.683787666666667</v>
+        <v>2.319357666666666</v>
       </c>
       <c r="H28">
-        <v>5.051363</v>
+        <v>6.958072999999999</v>
       </c>
       <c r="I28">
-        <v>0.2042595260953423</v>
+        <v>0.3172024640875006</v>
       </c>
       <c r="J28">
-        <v>0.2042595260953423</v>
+        <v>0.3172024640875006</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>2.423945999999999</v>
+        <v>0.522662</v>
       </c>
       <c r="N28">
-        <v>7.271837999999999</v>
+        <v>1.567986</v>
       </c>
       <c r="O28">
-        <v>0.647608861182233</v>
+        <v>0.1385336331388131</v>
       </c>
       <c r="P28">
-        <v>0.6476088611822332</v>
+        <v>0.1385336331388132</v>
       </c>
       <c r="Q28">
-        <v>4.081410379465999</v>
+        <v>1.212240116775333</v>
       </c>
       <c r="R28">
-        <v>36.732693415194</v>
+        <v>10.910161050978</v>
       </c>
       <c r="S28">
-        <v>0.1322802790802272</v>
+        <v>0.04394320979062535</v>
       </c>
       <c r="T28">
-        <v>0.1322802790802273</v>
+        <v>0.04394320979062537</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.683787666666667</v>
+        <v>2.319357666666666</v>
       </c>
       <c r="H29">
-        <v>5.051363</v>
+        <v>6.958072999999999</v>
       </c>
       <c r="I29">
-        <v>0.2042595260953423</v>
+        <v>0.3172024640875006</v>
       </c>
       <c r="J29">
-        <v>0.2042595260953423</v>
+        <v>0.3172024640875006</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2235,33 +2235,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>0.2710936666666667</v>
+        <v>0.09855700000000001</v>
       </c>
       <c r="N29">
-        <v>0.813281</v>
+        <v>0.295671</v>
       </c>
       <c r="O29">
-        <v>0.07242845374596461</v>
+        <v>0.02612292319177979</v>
       </c>
       <c r="P29">
-        <v>0.07242845374596461</v>
+        <v>0.02612292319177979</v>
       </c>
       <c r="Q29">
-        <v>0.4564641724447778</v>
+        <v>0.2285889335536667</v>
       </c>
       <c r="R29">
-        <v>4.108177552003</v>
+        <v>2.057300401983</v>
       </c>
       <c r="S29">
-        <v>0.01479420163796915</v>
+        <v>0.008286255605601065</v>
       </c>
       <c r="T29">
-        <v>0.01479420163796915</v>
+        <v>0.008286255605601065</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,60 +2279,60 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.683787666666667</v>
+        <v>2.319357666666666</v>
       </c>
       <c r="H30">
-        <v>5.051363</v>
+        <v>6.958072999999999</v>
       </c>
       <c r="I30">
-        <v>0.2042595260953423</v>
+        <v>0.3172024640875006</v>
       </c>
       <c r="J30">
-        <v>0.2042595260953423</v>
+        <v>0.3172024640875006</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.4501426666666666</v>
+        <v>0.6060016666666667</v>
       </c>
       <c r="N30">
-        <v>1.350428</v>
+        <v>1.818005</v>
       </c>
       <c r="O30">
-        <v>0.1202652120672381</v>
+        <v>0.1606231418612973</v>
       </c>
       <c r="P30">
-        <v>0.1202652120672381</v>
+        <v>0.1606231418612973</v>
       </c>
       <c r="Q30">
-        <v>0.7579446703737778</v>
+        <v>1.405534611596111</v>
       </c>
       <c r="R30">
-        <v>6.821502033364</v>
+        <v>12.649811504365</v>
       </c>
       <c r="S30">
-        <v>0.0245653152226099</v>
+        <v>0.05095005638787965</v>
       </c>
       <c r="T30">
-        <v>0.02456531522260991</v>
+        <v>0.05095005638787965</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.683787666666667</v>
+        <v>2.319357666666666</v>
       </c>
       <c r="H31">
-        <v>5.051363</v>
+        <v>6.958072999999999</v>
       </c>
       <c r="I31">
-        <v>0.2042595260953423</v>
+        <v>0.3172024640875006</v>
       </c>
       <c r="J31">
-        <v>0.2042595260953423</v>
+        <v>0.3172024640875006</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2359,28 +2359,400 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.311266</v>
+        <v>0.07106366666666666</v>
       </c>
       <c r="N31">
-        <v>0.9337979999999999</v>
+        <v>0.213191</v>
       </c>
       <c r="O31">
-        <v>0.08316134921518425</v>
+        <v>0.01883570630254142</v>
       </c>
       <c r="P31">
-        <v>0.08316134921518424</v>
+        <v>0.01883570630254142</v>
       </c>
       <c r="Q31">
-        <v>0.5241058518526667</v>
+        <v>0.1648220601047778</v>
       </c>
       <c r="R31">
-        <v>4.716952666674</v>
+        <v>1.483398540943</v>
       </c>
       <c r="S31">
-        <v>0.0169864977801428</v>
+        <v>0.005974732451994604</v>
       </c>
       <c r="T31">
-        <v>0.0169864977801428</v>
+        <v>0.005974732451994604</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.737339</v>
+      </c>
+      <c r="H32">
+        <v>2.212017</v>
+      </c>
+      <c r="I32">
+        <v>0.1008407418265719</v>
+      </c>
+      <c r="J32">
+        <v>0.1008407418265719</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M32">
+        <v>0.05058633333333334</v>
+      </c>
+      <c r="N32">
+        <v>0.151759</v>
+      </c>
+      <c r="O32">
+        <v>0.0134081080006538</v>
+      </c>
+      <c r="P32">
+        <v>0.0134081080006538</v>
+      </c>
+      <c r="Q32">
+        <v>0.03729927643366667</v>
+      </c>
+      <c r="R32">
+        <v>0.335693487903</v>
+      </c>
+      <c r="S32">
+        <v>0.001352083557276723</v>
+      </c>
+      <c r="T32">
+        <v>0.001352083557276724</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.737339</v>
+      </c>
+      <c r="H33">
+        <v>2.212017</v>
+      </c>
+      <c r="I33">
+        <v>0.1008407418265719</v>
+      </c>
+      <c r="J33">
+        <v>0.1008407418265719</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.423946</v>
+      </c>
+      <c r="N33">
+        <v>7.271838</v>
+      </c>
+      <c r="O33">
+        <v>0.6424764875049145</v>
+      </c>
+      <c r="P33">
+        <v>0.6424764875049145</v>
+      </c>
+      <c r="Q33">
+        <v>1.787269919694</v>
+      </c>
+      <c r="R33">
+        <v>16.085429277246</v>
+      </c>
+      <c r="S33">
+        <v>0.06478780560612585</v>
+      </c>
+      <c r="T33">
+        <v>0.06478780560612586</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.737339</v>
+      </c>
+      <c r="H34">
+        <v>2.212017</v>
+      </c>
+      <c r="I34">
+        <v>0.1008407418265719</v>
+      </c>
+      <c r="J34">
+        <v>0.1008407418265719</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.522662</v>
+      </c>
+      <c r="N34">
+        <v>1.567986</v>
+      </c>
+      <c r="O34">
+        <v>0.1385336331388131</v>
+      </c>
+      <c r="P34">
+        <v>0.1385336331388132</v>
+      </c>
+      <c r="Q34">
+        <v>0.385379076418</v>
+      </c>
+      <c r="R34">
+        <v>3.468411687761999</v>
+      </c>
+      <c r="S34">
+        <v>0.01396983433364809</v>
+      </c>
+      <c r="T34">
+        <v>0.01396983433364809</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.737339</v>
+      </c>
+      <c r="H35">
+        <v>2.212017</v>
+      </c>
+      <c r="I35">
+        <v>0.1008407418265719</v>
+      </c>
+      <c r="J35">
+        <v>0.1008407418265719</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.09855700000000001</v>
+      </c>
+      <c r="N35">
+        <v>0.295671</v>
+      </c>
+      <c r="O35">
+        <v>0.02612292319177979</v>
+      </c>
+      <c r="P35">
+        <v>0.02612292319177979</v>
+      </c>
+      <c r="Q35">
+        <v>0.072669919823</v>
+      </c>
+      <c r="R35">
+        <v>0.654029278407</v>
+      </c>
+      <c r="S35">
+        <v>0.002634254953337634</v>
+      </c>
+      <c r="T35">
+        <v>0.002634254953337635</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.737339</v>
+      </c>
+      <c r="H36">
+        <v>2.212017</v>
+      </c>
+      <c r="I36">
+        <v>0.1008407418265719</v>
+      </c>
+      <c r="J36">
+        <v>0.1008407418265719</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.6060016666666667</v>
+      </c>
+      <c r="N36">
+        <v>1.818005</v>
+      </c>
+      <c r="O36">
+        <v>0.1606231418612973</v>
+      </c>
+      <c r="P36">
+        <v>0.1606231418612973</v>
+      </c>
+      <c r="Q36">
+        <v>0.4468286628983333</v>
+      </c>
+      <c r="R36">
+        <v>4.021457966084999</v>
+      </c>
+      <c r="S36">
+        <v>0.01619735677980791</v>
+      </c>
+      <c r="T36">
+        <v>0.01619735677980792</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.737339</v>
+      </c>
+      <c r="H37">
+        <v>2.212017</v>
+      </c>
+      <c r="I37">
+        <v>0.1008407418265719</v>
+      </c>
+      <c r="J37">
+        <v>0.1008407418265719</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M37">
+        <v>0.07106366666666666</v>
+      </c>
+      <c r="N37">
+        <v>0.213191</v>
+      </c>
+      <c r="O37">
+        <v>0.01883570630254142</v>
+      </c>
+      <c r="P37">
+        <v>0.01883570630254142</v>
+      </c>
+      <c r="Q37">
+        <v>0.05239801291633333</v>
+      </c>
+      <c r="R37">
+        <v>0.471582116247</v>
+      </c>
+      <c r="S37">
+        <v>0.001899406596375713</v>
+      </c>
+      <c r="T37">
+        <v>0.001899406596375714</v>
       </c>
     </row>
   </sheetData>
